--- a/django_backend/var/sys/views/core/ScreenDfn-v0.xlsx
+++ b/django_backend/var/sys/views/core/ScreenDfn-v0.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="-1005" yWindow="-105" windowWidth="29040" windowHeight="4170"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Widgets" sheetId="2" r:id="rId2"/>
     <sheet name="Notes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -40,14 +40,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="486">
   <si>
     <t>Do not modify this column</t>
   </si>
   <si>
-    <t>Screen Definition - v25</t>
-  </si>
-  <si>
     <t>viewAPIRev</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
     <t>Screen ID</t>
   </si>
   <si>
+    <t>ScreenDfn</t>
+  </si>
+  <si>
     <t>viewTitle</t>
   </si>
   <si>
@@ -99,6 +99,9 @@
     <t>Class Name</t>
   </si>
   <si>
+    <t>core.viewsScreenDfn.ScreenDfn</t>
+  </si>
+  <si>
     <t>Python / Javascript ClassName</t>
   </si>
   <si>
@@ -180,21 +183,33 @@
     <t>*</t>
   </si>
   <si>
+    <t>core.db.model.DummyModel</t>
+  </si>
+  <si>
     <t>fgHeaderFooterRc</t>
   </si>
   <si>
+    <t>core.models.ScreenFgHeaderFooter</t>
+  </si>
+  <si>
     <t>fgHeaderFooterRcs</t>
   </si>
   <si>
     <t>fgLinkRc</t>
   </si>
   <si>
+    <t>core.models.ScreenFgLink</t>
+  </si>
+  <si>
     <t>fgLinkRcs</t>
   </si>
   <si>
     <t>fieldGroupRc</t>
   </si>
   <si>
+    <t>core.models.ScreenFieldGroup</t>
+  </si>
+  <si>
     <t>seq</t>
   </si>
   <si>
@@ -204,15 +219,27 @@
     <t>fieldRcs</t>
   </si>
   <si>
+    <t>core.models.ScreenField</t>
+  </si>
+  <si>
     <t>recordsetRcs</t>
   </si>
   <si>
+    <t>core.models.ScreenRecordset</t>
+  </si>
+  <si>
     <t>screenDfnRcs</t>
   </si>
   <si>
+    <t>core.models.ScreenDfn</t>
+  </si>
+  <si>
     <t>screenRc</t>
   </si>
   <si>
+    <t>core.models.Screen</t>
+  </si>
+  <si>
     <t>screenSelectRc</t>
   </si>
   <si>
@@ -451,6 +478,9 @@
   </si>
   <si>
     <t>File</t>
+  </si>
+  <si>
+    <t>multiple:true</t>
   </si>
   <si>
     <t>bttNewScreen</t>
@@ -1336,15 +1366,18 @@
     <t>deleteFgHeaderFooter</t>
   </si>
   <si>
-    <t>formatField</t>
+    <t>formatField1</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>formatField2</t>
   </si>
   <si>
     <t>dataUrl: getFormat</t>
   </si>
   <si>
-    <t>format</t>
-  </si>
-  <si>
     <t>stateNumField</t>
   </si>
   <si>
@@ -1483,47 +1516,17 @@
     <t>One tailor made javascript for each layout</t>
   </si>
   <si>
-    <t>ScreenDfn</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>core.viewsScreenDfn.ScreenDfn</t>
-  </si>
-  <si>
-    <t>core.db.model.DummyModel</t>
-  </si>
-  <si>
-    <t>core.models.ScreenFgHeaderFooter</t>
-  </si>
-  <si>
-    <t>core.models.ScreenFgLink</t>
-  </si>
-  <si>
-    <t>core.models.ScreenFieldGroup</t>
-  </si>
-  <si>
-    <t>core.models.ScreenField</t>
-  </si>
-  <si>
-    <t>core.models.ScreenRecordset</t>
-  </si>
-  <si>
-    <t>core.models.ScreenDfn</t>
-  </si>
-  <si>
-    <t>core.models.Screen</t>
-  </si>
-  <si>
-    <t>multiple:true</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Screen Definition - v1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1771,55 +1774,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1314450" y="1314450"/>
-          <a:ext cx="4772025" cy="4314825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2106,15 +2066,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T212"/>
+  <dimension ref="A1:T213"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J67" sqref="J67"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" style="7" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -2123,7 +2081,7 @@
     <col min="5" max="5" width="23.85546875" customWidth="1"/>
     <col min="6" max="8" width="16.42578125" customWidth="1"/>
     <col min="9" max="9" width="20.5703125" customWidth="1"/>
-    <col min="10" max="10" width="123.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.42578125" customWidth="1"/>
     <col min="12" max="12" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
@@ -2140,43 +2098,43 @@
     <col min="28" max="30" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="37.5" customHeight="1">
+    <row r="1" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="6"/>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="C3" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="12" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>473</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -2189,7 +2147,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
@@ -2204,7 +2162,7 @@
       </c>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
@@ -2219,7 +2177,7 @@
       </c>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -2230,7 +2188,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -2238,91 +2196,91 @@
         <v>18</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>475</v>
+        <v>19</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="I15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="C16" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F16" s="9"/>
       <c r="N16" s="9"/>
@@ -2330,226 +2288,226 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="C18" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>476</v>
+        <v>47</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C19" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>45</v>
-      </c>
       <c r="E19" s="12" t="s">
-        <v>477</v>
+        <v>49</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C20" s="12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>477</v>
+        <v>49</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>478</v>
+        <v>52</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>478</v>
+        <v>52</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C23" s="12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>479</v>
+        <v>55</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24" s="12" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>479</v>
+        <v>55</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C25" s="12" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>480</v>
+        <v>59</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C26" s="12" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>481</v>
+        <v>61</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" s="12" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>482</v>
+        <v>63</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C28" s="12" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>483</v>
+        <v>65</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C29" s="12" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>476</v>
+        <v>47</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="C30" s="5" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -2558,120 +2516,120 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="D32" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="L33" s="9"/>
       <c r="M33" s="9" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="O33" s="9"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="T34" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="12" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
@@ -2686,18 +2644,18 @@
       <c r="S35" s="12"/>
       <c r="T35" s="12"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C36" s="12" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
@@ -2712,20 +2670,20 @@
       <c r="S36" s="12"/>
       <c r="T36" s="12"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C37" s="12" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G37" s="12"/>
       <c r="H37" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
@@ -2740,22 +2698,22 @@
       <c r="S37" s="12"/>
       <c r="T37" s="12"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C38" s="12" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G38" s="12"/>
       <c r="H38" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
@@ -2770,18 +2728,18 @@
       <c r="S38" s="12"/>
       <c r="T38" s="12"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C39" s="12" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
@@ -2796,30 +2754,30 @@
       <c r="S39" s="12"/>
       <c r="T39" s="12"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C40" s="12" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
@@ -2832,18 +2790,18 @@
       <c r="S40" s="12"/>
       <c r="T40" s="12"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C41" s="12" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
@@ -2858,24 +2816,24 @@
       <c r="S41" s="12"/>
       <c r="T41" s="12"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C42" s="12" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
       <c r="J42" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
@@ -2888,27 +2846,27 @@
       <c r="S42" s="12"/>
       <c r="T42" s="12"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C43" s="12" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
@@ -2922,30 +2880,30 @@
       <c r="S43" s="12"/>
       <c r="T43" s="12"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C44" s="12" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
@@ -2958,18 +2916,18 @@
       <c r="S44" s="12"/>
       <c r="T44" s="12"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C45" s="12" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
@@ -2984,30 +2942,30 @@
       <c r="S45" s="12"/>
       <c r="T45" s="12"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C46" s="12" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
@@ -3020,18 +2978,18 @@
       <c r="S46" s="12"/>
       <c r="T46" s="12"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C47" s="12" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I47" s="12"/>
       <c r="J47" s="12"/>
@@ -3046,24 +3004,24 @@
       <c r="S47" s="12"/>
       <c r="T47" s="12"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C48" s="12" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
       <c r="J48" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
@@ -3076,22 +3034,22 @@
       <c r="S48" s="12"/>
       <c r="T48" s="12"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C49" s="12" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G49" s="12"/>
       <c r="H49" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
@@ -3106,18 +3064,18 @@
       <c r="S49" s="12"/>
       <c r="T49" s="12"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C50" s="12" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
       <c r="H50" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I50" s="12"/>
       <c r="J50" s="12"/>
@@ -3132,24 +3090,24 @@
       <c r="S50" s="12"/>
       <c r="T50" s="12"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C51" s="12" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
       <c r="J51" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K51" s="12"/>
       <c r="L51" s="12"/>
@@ -3162,22 +3120,22 @@
       <c r="S51" s="12"/>
       <c r="T51" s="12"/>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C52" s="12" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G52" s="12"/>
       <c r="H52" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I52" s="12"/>
       <c r="J52" s="12"/>
@@ -3192,18 +3150,18 @@
       <c r="S52" s="12"/>
       <c r="T52" s="12"/>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C53" s="12" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I53" s="12"/>
       <c r="J53" s="12"/>
@@ -3218,20 +3176,20 @@
       <c r="S53" s="12"/>
       <c r="T53" s="12"/>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C54" s="12" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G54" s="12"/>
       <c r="H54" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I54" s="12"/>
       <c r="J54" s="12"/>
@@ -3246,12 +3204,12 @@
       <c r="S54" s="12"/>
       <c r="T54" s="12"/>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C55" s="12" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
@@ -3270,9 +3228,9 @@
       <c r="S55" s="12"/>
       <c r="T55" s="12"/>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C56" s="5" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -3292,101 +3250,101 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K58" s="9"/>
       <c r="L58" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C59" s="9"/>
       <c r="D59" s="9" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
       <c r="H59" s="11" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="K59" s="17"/>
       <c r="L59" s="21" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="M59" s="20"/>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="12" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
       <c r="I61" s="12" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>484</v>
+        <v>146</v>
       </c>
       <c r="K61" s="12"/>
       <c r="L61" s="12"/>
@@ -3395,133 +3353,133 @@
       <c r="O61" s="12"/>
       <c r="P61" s="12"/>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C62" s="12" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
       <c r="I62" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K62" s="12"/>
       <c r="L62" s="12"/>
       <c r="M62" s="12"/>
       <c r="N62" s="12" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="O62" s="12"/>
       <c r="P62" s="12"/>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C63" s="12"/>
       <c r="D63" s="12" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
       <c r="I63" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="K63" s="12"/>
       <c r="L63" s="12"/>
       <c r="M63" s="12"/>
       <c r="N63" s="12" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="O63" s="12"/>
       <c r="P63" s="12"/>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C64" s="12"/>
       <c r="D64" s="12" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
       <c r="I64" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
       <c r="M64" s="12"/>
       <c r="N64" s="12" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="O64" s="12"/>
       <c r="P64" s="12"/>
     </row>
-    <row r="65" spans="3:16">
+    <row r="65" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C65" s="12"/>
       <c r="D65" s="12" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
       <c r="I65" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
       <c r="M65" s="12"/>
       <c r="N65" s="12" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="O65" s="12"/>
       <c r="P65" s="12"/>
     </row>
-    <row r="66" spans="3:16">
+    <row r="66" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C66" s="12" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
       <c r="I66" s="12" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="L66" s="12"/>
       <c r="M66" s="12"/>
@@ -3529,235 +3487,235 @@
       <c r="O66" s="12"/>
       <c r="P66" s="12"/>
     </row>
-    <row r="67" spans="3:16">
+    <row r="67" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C67" s="12" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>
       <c r="I67" s="12" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J67" s="12"/>
       <c r="K67" s="12" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="L67" s="12"/>
       <c r="M67" s="12"/>
       <c r="N67" s="12"/>
       <c r="O67" s="12" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P67" s="12"/>
     </row>
-    <row r="68" spans="3:16">
+    <row r="68" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C68" s="12"/>
       <c r="D68" s="12" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
       <c r="I68" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J68" s="12"/>
       <c r="K68" s="12" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="L68" s="12"/>
       <c r="M68" s="12"/>
       <c r="N68" s="12"/>
       <c r="O68" s="12" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P68" s="12"/>
     </row>
-    <row r="69" spans="3:16">
+    <row r="69" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C69" s="12"/>
       <c r="D69" s="12" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
       <c r="I69" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J69" s="12"/>
       <c r="K69" s="12" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="L69" s="12"/>
       <c r="M69" s="12"/>
       <c r="N69" s="12"/>
       <c r="O69" s="12" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P69" s="12"/>
     </row>
-    <row r="70" spans="3:16">
+    <row r="70" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C70" s="12"/>
       <c r="D70" s="12" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
       <c r="I70" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J70" s="12"/>
       <c r="K70" s="12" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="L70" s="12"/>
       <c r="M70" s="12"/>
       <c r="N70" s="12"/>
       <c r="O70" s="12" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P70" s="12"/>
     </row>
-    <row r="71" spans="3:16">
+    <row r="71" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C71" s="12"/>
       <c r="D71" s="12" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
       <c r="I71" s="12" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="L71" s="12"/>
       <c r="M71" s="12"/>
       <c r="N71" s="12"/>
       <c r="O71" s="12" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="P71" s="12"/>
     </row>
-    <row r="72" spans="3:16">
+    <row r="72" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C72" s="12"/>
       <c r="D72" s="12" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="12"/>
       <c r="I72" s="12" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="J72" s="12"/>
       <c r="K72" s="12" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="L72" s="12"/>
       <c r="M72" s="12"/>
       <c r="N72" s="12"/>
       <c r="O72" s="12" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P72" s="12"/>
     </row>
-    <row r="73" spans="3:16">
+    <row r="73" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C73" s="12"/>
       <c r="D73" s="12" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
       <c r="I73" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J73" s="12"/>
       <c r="K73" s="12" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="L73" s="12"/>
       <c r="M73" s="12"/>
       <c r="N73" s="12"/>
       <c r="O73" s="12" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P73" s="12"/>
     </row>
-    <row r="74" spans="3:16">
+    <row r="74" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C74" s="12"/>
       <c r="D74" s="12" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
       <c r="I74" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J74" s="12"/>
       <c r="K74" s="12" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="L74" s="12"/>
       <c r="M74" s="12"/>
       <c r="N74" s="12"/>
       <c r="O74" s="12" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P74" s="12"/>
     </row>
-    <row r="75" spans="3:16">
+    <row r="75" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C75" s="12"/>
       <c r="D75" s="12" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
       <c r="I75" s="12" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="J75" s="12"/>
       <c r="K75" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L75" s="12"/>
       <c r="M75" s="12"/>
@@ -3765,235 +3723,235 @@
       <c r="O75" s="12"/>
       <c r="P75" s="12"/>
     </row>
-    <row r="76" spans="3:16">
+    <row r="76" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C76" s="12"/>
       <c r="D76" s="12" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="F76" s="12"/>
       <c r="G76" s="12"/>
       <c r="H76" s="12"/>
       <c r="I76" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J76" s="12"/>
       <c r="K76" s="12" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="L76" s="12"/>
       <c r="M76" s="12"/>
       <c r="N76" s="12"/>
       <c r="O76" s="12" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P76" s="12"/>
     </row>
-    <row r="77" spans="3:16">
+    <row r="77" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C77" s="12"/>
       <c r="D77" s="12" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
       <c r="I77" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J77" s="12"/>
       <c r="K77" s="12" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="L77" s="12"/>
       <c r="M77" s="12"/>
       <c r="N77" s="12"/>
       <c r="O77" s="12" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P77" s="12"/>
     </row>
-    <row r="78" spans="3:16">
+    <row r="78" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C78" s="12"/>
       <c r="D78" s="12" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
       <c r="I78" s="12" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="J78" s="12"/>
       <c r="K78" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L78" s="12"/>
       <c r="M78" s="12"/>
       <c r="N78" s="12"/>
       <c r="O78" s="12" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P78" s="12"/>
     </row>
-    <row r="79" spans="3:16">
+    <row r="79" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C79" s="12" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
       <c r="I79" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="K79" s="12"/>
       <c r="L79" s="12"/>
       <c r="M79" s="12"/>
       <c r="N79" s="12" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="O79" s="12"/>
       <c r="P79" s="12"/>
     </row>
-    <row r="80" spans="3:16">
+    <row r="80" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C80" s="12"/>
       <c r="D80" s="12" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
       <c r="I80" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="K80" s="12"/>
       <c r="L80" s="12"/>
       <c r="M80" s="12"/>
       <c r="N80" s="12" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="O80" s="12"/>
       <c r="P80" s="12"/>
     </row>
-    <row r="81" spans="3:16">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C81" s="12"/>
       <c r="D81" s="12" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="F81" s="12"/>
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
       <c r="I81" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="K81" s="12"/>
       <c r="L81" s="12"/>
       <c r="M81" s="12"/>
       <c r="N81" s="12" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="O81" s="12"/>
       <c r="P81" s="12"/>
     </row>
-    <row r="82" spans="3:16">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C82" s="12"/>
       <c r="D82" s="12" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="F82" s="12"/>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
       <c r="I82" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K82" s="12"/>
       <c r="L82" s="12"/>
       <c r="M82" s="12"/>
       <c r="N82" s="12" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="O82" s="12"/>
       <c r="P82" s="12"/>
     </row>
-    <row r="83" spans="3:16">
+    <row r="83" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C83" s="12"/>
       <c r="D83" s="12" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F83" s="12"/>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
       <c r="I83" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="K83" s="12"/>
       <c r="L83" s="12"/>
       <c r="M83" s="12"/>
       <c r="N83" s="12" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="O83" s="12"/>
       <c r="P83" s="12"/>
     </row>
-    <row r="84" spans="3:16">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C84" s="12" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F84" s="12"/>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
       <c r="I84" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J84" s="12"/>
       <c r="K84" s="12" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="L84" s="12"/>
       <c r="M84" s="12"/>
@@ -4001,25 +3959,25 @@
       <c r="O84" s="12"/>
       <c r="P84" s="12"/>
     </row>
-    <row r="85" spans="3:16">
+    <row r="85" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C85" s="12"/>
       <c r="D85" s="12" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
       <c r="I85" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J85" s="12"/>
       <c r="K85" s="12" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="L85" s="12"/>
       <c r="M85" s="12"/>
@@ -4027,23 +3985,23 @@
       <c r="O85" s="12"/>
       <c r="P85" s="12"/>
     </row>
-    <row r="86" spans="3:16">
+    <row r="86" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C86" s="12"/>
       <c r="D86" s="12" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F86" s="12"/>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
       <c r="I86" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J86" s="12"/>
       <c r="K86" s="12" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="L86" s="12"/>
       <c r="M86" s="12"/>
@@ -4051,23 +4009,23 @@
       <c r="O86" s="12"/>
       <c r="P86" s="12"/>
     </row>
-    <row r="87" spans="3:16">
+    <row r="87" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C87" s="12"/>
       <c r="D87" s="12" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F87" s="12"/>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
       <c r="I87" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J87" s="12"/>
       <c r="K87" s="12" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="L87" s="12"/>
       <c r="M87" s="12"/>
@@ -4075,23 +4033,23 @@
       <c r="O87" s="12"/>
       <c r="P87" s="12"/>
     </row>
-    <row r="88" spans="3:16">
+    <row r="88" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C88" s="12"/>
       <c r="D88" s="12" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F88" s="12"/>
       <c r="G88" s="12"/>
       <c r="H88" s="12"/>
       <c r="I88" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J88" s="12"/>
       <c r="K88" s="12" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="L88" s="12"/>
       <c r="M88" s="12"/>
@@ -4099,23 +4057,23 @@
       <c r="O88" s="12"/>
       <c r="P88" s="12"/>
     </row>
-    <row r="89" spans="3:16">
+    <row r="89" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C89" s="12"/>
       <c r="D89" s="12" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F89" s="12"/>
       <c r="G89" s="12"/>
       <c r="H89" s="12"/>
       <c r="I89" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J89" s="12"/>
       <c r="K89" s="12" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="L89" s="12"/>
       <c r="M89" s="12"/>
@@ -4123,23 +4081,23 @@
       <c r="O89" s="12"/>
       <c r="P89" s="12"/>
     </row>
-    <row r="90" spans="3:16">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C90" s="12"/>
       <c r="D90" s="12" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F90" s="12"/>
       <c r="G90" s="12"/>
       <c r="H90" s="12"/>
       <c r="I90" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J90" s="12"/>
       <c r="K90" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L90" s="12"/>
       <c r="M90" s="12"/>
@@ -4147,53 +4105,53 @@
       <c r="O90" s="12"/>
       <c r="P90" s="12"/>
     </row>
-    <row r="91" spans="3:16">
+    <row r="91" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C91" s="12" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="F91" s="12"/>
       <c r="G91" s="12"/>
       <c r="H91" s="12"/>
       <c r="I91" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="K91" s="12"/>
       <c r="L91" s="12"/>
       <c r="M91" s="12"/>
       <c r="N91" s="12" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="O91" s="12"/>
       <c r="P91" s="12"/>
     </row>
-    <row r="92" spans="3:16">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C92" s="12" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F92" s="12"/>
       <c r="G92" s="12"/>
       <c r="H92" s="12"/>
       <c r="I92" s="12" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J92" s="12"/>
       <c r="K92" s="12" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="L92" s="12"/>
       <c r="M92" s="12"/>
@@ -4201,23 +4159,23 @@
       <c r="O92" s="12"/>
       <c r="P92" s="12"/>
     </row>
-    <row r="93" spans="3:16">
+    <row r="93" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C93" s="12"/>
       <c r="D93" s="12" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F93" s="12"/>
       <c r="G93" s="12"/>
       <c r="H93" s="12"/>
       <c r="I93" s="12" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J93" s="12"/>
       <c r="K93" s="12" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="L93" s="12"/>
       <c r="M93" s="12"/>
@@ -4225,23 +4183,23 @@
       <c r="O93" s="12"/>
       <c r="P93" s="12"/>
     </row>
-    <row r="94" spans="3:16">
+    <row r="94" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C94" s="12"/>
       <c r="D94" s="12" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F94" s="12"/>
       <c r="G94" s="12"/>
       <c r="H94" s="12"/>
       <c r="I94" s="12" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J94" s="12"/>
       <c r="K94" s="12" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="L94" s="12"/>
       <c r="M94" s="12"/>
@@ -4249,23 +4207,23 @@
       <c r="O94" s="12"/>
       <c r="P94" s="12"/>
     </row>
-    <row r="95" spans="3:16">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C95" s="12"/>
       <c r="D95" s="12" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F95" s="12"/>
       <c r="G95" s="12"/>
       <c r="H95" s="12"/>
       <c r="I95" s="12" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J95" s="12"/>
       <c r="K95" s="12" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="L95" s="12"/>
       <c r="M95" s="12"/>
@@ -4273,23 +4231,23 @@
       <c r="O95" s="12"/>
       <c r="P95" s="12"/>
     </row>
-    <row r="96" spans="3:16">
+    <row r="96" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C96" s="12"/>
       <c r="D96" s="12" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F96" s="12"/>
       <c r="G96" s="12"/>
       <c r="H96" s="12"/>
       <c r="I96" s="12" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J96" s="12"/>
       <c r="K96" s="12" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="L96" s="12"/>
       <c r="M96" s="12"/>
@@ -4297,23 +4255,23 @@
       <c r="O96" s="12"/>
       <c r="P96" s="12"/>
     </row>
-    <row r="97" spans="3:16">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C97" s="12"/>
       <c r="D97" s="12" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F97" s="12"/>
       <c r="G97" s="12"/>
       <c r="H97" s="12"/>
       <c r="I97" s="12" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J97" s="12"/>
       <c r="K97" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L97" s="12"/>
       <c r="M97" s="12"/>
@@ -4321,23 +4279,23 @@
       <c r="O97" s="12"/>
       <c r="P97" s="12"/>
     </row>
-    <row r="98" spans="3:16">
+    <row r="98" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C98" s="12"/>
       <c r="D98" s="12" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F98" s="12"/>
       <c r="G98" s="12"/>
       <c r="H98" s="12"/>
       <c r="I98" s="12" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J98" s="12"/>
       <c r="K98" s="12" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="L98" s="12"/>
       <c r="M98" s="12"/>
@@ -4345,23 +4303,23 @@
       <c r="O98" s="12"/>
       <c r="P98" s="12"/>
     </row>
-    <row r="99" spans="3:16">
+    <row r="99" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C99" s="12"/>
       <c r="D99" s="12" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
       <c r="H99" s="12"/>
       <c r="I99" s="12" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J99" s="12"/>
       <c r="K99" s="12" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="L99" s="12"/>
       <c r="M99" s="12"/>
@@ -4369,23 +4327,23 @@
       <c r="O99" s="12"/>
       <c r="P99" s="12"/>
     </row>
-    <row r="100" spans="3:16">
+    <row r="100" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C100" s="12"/>
       <c r="D100" s="12" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
       <c r="H100" s="12"/>
       <c r="I100" s="12" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J100" s="12"/>
       <c r="K100" s="12" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="L100" s="12"/>
       <c r="M100" s="12"/>
@@ -4393,23 +4351,23 @@
       <c r="O100" s="12"/>
       <c r="P100" s="12"/>
     </row>
-    <row r="101" spans="3:16">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C101" s="12"/>
       <c r="D101" s="12" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F101" s="12"/>
       <c r="G101" s="12"/>
       <c r="H101" s="12"/>
       <c r="I101" s="12" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J101" s="12"/>
       <c r="K101" s="12" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="L101" s="12"/>
       <c r="M101" s="12"/>
@@ -4417,25 +4375,25 @@
       <c r="O101" s="12"/>
       <c r="P101" s="12"/>
     </row>
-    <row r="102" spans="3:16">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C102" s="12"/>
       <c r="D102" s="12" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="G102" s="12"/>
       <c r="H102" s="12"/>
       <c r="I102" s="12" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J102" s="12"/>
       <c r="K102" s="12" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="L102" s="12"/>
       <c r="M102" s="12"/>
@@ -4443,23 +4401,23 @@
       <c r="O102" s="12"/>
       <c r="P102" s="12"/>
     </row>
-    <row r="103" spans="3:16">
+    <row r="103" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C103" s="12"/>
       <c r="D103" s="12" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F103" s="12"/>
       <c r="G103" s="12"/>
       <c r="H103" s="12"/>
       <c r="I103" s="12" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J103" s="12"/>
       <c r="K103" s="12" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="L103" s="12"/>
       <c r="M103" s="12"/>
@@ -4467,23 +4425,23 @@
       <c r="O103" s="12"/>
       <c r="P103" s="12"/>
     </row>
-    <row r="104" spans="3:16">
+    <row r="104" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C104" s="12"/>
       <c r="D104" s="12" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F104" s="12"/>
       <c r="G104" s="12"/>
       <c r="H104" s="12"/>
       <c r="I104" s="12" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J104" s="12"/>
       <c r="K104" s="12" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="L104" s="12"/>
       <c r="M104" s="12"/>
@@ -4491,23 +4449,23 @@
       <c r="O104" s="12"/>
       <c r="P104" s="12"/>
     </row>
-    <row r="105" spans="3:16">
+    <row r="105" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C105" s="12"/>
       <c r="D105" s="12" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F105" s="12"/>
       <c r="G105" s="12"/>
       <c r="H105" s="12"/>
       <c r="I105" s="12" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J105" s="12"/>
       <c r="K105" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L105" s="12"/>
       <c r="M105" s="12"/>
@@ -4515,183 +4473,183 @@
       <c r="O105" s="12"/>
       <c r="P105" s="12"/>
     </row>
-    <row r="106" spans="3:16">
+    <row r="106" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C106" s="12"/>
       <c r="D106" s="12" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
       <c r="I106" s="12" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="J106" s="12"/>
       <c r="K106" s="12" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="L106" s="12"/>
       <c r="M106" s="12"/>
       <c r="N106" s="12" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="O106" s="12"/>
       <c r="P106" s="12"/>
     </row>
-    <row r="107" spans="3:16">
+    <row r="107" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C107" s="12" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="F107" s="12"/>
       <c r="G107" s="12"/>
       <c r="H107" s="12"/>
       <c r="I107" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J107" s="12"/>
       <c r="K107" s="12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L107" s="12"/>
       <c r="M107" s="12"/>
       <c r="N107" s="12"/>
       <c r="O107" s="12" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P107" s="12"/>
     </row>
-    <row r="108" spans="3:16">
+    <row r="108" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C108" s="12"/>
       <c r="D108" s="12" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
       <c r="H108" s="12"/>
       <c r="I108" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J108" s="12"/>
       <c r="K108" s="12" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="L108" s="12"/>
       <c r="M108" s="12"/>
       <c r="N108" s="12"/>
       <c r="O108" s="12" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P108" s="12"/>
     </row>
-    <row r="109" spans="3:16">
+    <row r="109" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C109" s="12"/>
       <c r="D109" s="12" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F109" s="12"/>
       <c r="G109" s="12"/>
       <c r="H109" s="12"/>
       <c r="I109" s="12" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="J109" s="12" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K109" s="12" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="L109" s="12"/>
       <c r="M109" s="12"/>
       <c r="N109" s="12"/>
       <c r="O109" s="12" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="P109" s="12"/>
     </row>
-    <row r="110" spans="3:16">
+    <row r="110" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C110" s="12"/>
       <c r="D110" s="12" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F110" s="12"/>
       <c r="G110" s="12"/>
       <c r="H110" s="12"/>
       <c r="I110" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J110" s="12"/>
       <c r="K110" s="12" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="L110" s="12"/>
       <c r="M110" s="12"/>
       <c r="N110" s="12"/>
       <c r="O110" s="12" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P110" s="12"/>
     </row>
-    <row r="111" spans="3:16">
+    <row r="111" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C111" s="12"/>
       <c r="D111" s="12" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F111" s="12"/>
       <c r="G111" s="12"/>
       <c r="H111" s="12"/>
       <c r="I111" s="12" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="J111" s="12" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="K111" s="12" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="L111" s="12"/>
       <c r="M111" s="12"/>
       <c r="N111" s="12"/>
       <c r="O111" s="12" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="P111" s="12"/>
     </row>
-    <row r="112" spans="3:16">
+    <row r="112" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C112" s="12"/>
       <c r="D112" s="12" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F112" s="12"/>
       <c r="G112" s="12"/>
       <c r="H112" s="12"/>
       <c r="I112" s="12" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="J112" s="12"/>
       <c r="K112" s="12" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="L112" s="12"/>
       <c r="M112" s="12"/>
@@ -4699,23 +4657,23 @@
       <c r="O112" s="12"/>
       <c r="P112" s="12"/>
     </row>
-    <row r="113" spans="3:16">
+    <row r="113" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C113" s="12"/>
       <c r="D113" s="12" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F113" s="12"/>
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
       <c r="I113" s="12" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="J113" s="12"/>
       <c r="K113" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L113" s="12"/>
       <c r="M113" s="12"/>
@@ -4723,23 +4681,23 @@
       <c r="O113" s="12"/>
       <c r="P113" s="12"/>
     </row>
-    <row r="114" spans="3:16">
+    <row r="114" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C114" s="12"/>
       <c r="D114" s="12" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F114" s="12"/>
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
       <c r="I114" s="12" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="J114" s="12"/>
       <c r="K114" s="12" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="L114" s="12"/>
       <c r="M114" s="12"/>
@@ -4747,23 +4705,23 @@
       <c r="O114" s="12"/>
       <c r="P114" s="12"/>
     </row>
-    <row r="115" spans="3:16">
+    <row r="115" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C115" s="12"/>
       <c r="D115" s="12" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F115" s="12"/>
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
       <c r="I115" s="12" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="J115" s="12"/>
       <c r="K115" s="12" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="L115" s="12"/>
       <c r="M115" s="12"/>
@@ -4771,241 +4729,241 @@
       <c r="O115" s="12"/>
       <c r="P115" s="12"/>
     </row>
-    <row r="116" spans="3:16">
+    <row r="116" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C116" s="12"/>
       <c r="D116" s="12" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F116" s="12"/>
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
       <c r="I116" s="12" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="J116" s="12" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="K116" s="12" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="L116" s="12"/>
       <c r="M116" s="12"/>
       <c r="N116" s="12"/>
       <c r="O116" s="12" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="P116" s="12"/>
     </row>
-    <row r="117" spans="3:16">
+    <row r="117" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C117" s="12"/>
       <c r="D117" s="12" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F117" s="12"/>
       <c r="G117" s="12"/>
       <c r="H117" s="12"/>
       <c r="I117" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J117" s="12"/>
       <c r="K117" s="12" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="L117" s="12"/>
       <c r="M117" s="12"/>
       <c r="N117" s="12"/>
       <c r="O117" s="12" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P117" s="12"/>
     </row>
-    <row r="118" spans="3:16">
+    <row r="118" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C118" s="12"/>
       <c r="D118" s="12" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="G118" s="12"/>
       <c r="H118" s="12"/>
       <c r="I118" s="12" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="J118" s="12" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="K118" s="12" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="L118" s="12"/>
       <c r="M118" s="12"/>
       <c r="N118" s="12"/>
       <c r="O118" s="12" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="P118" s="12"/>
     </row>
-    <row r="119" spans="3:16">
+    <row r="119" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C119" s="12"/>
       <c r="D119" s="12" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F119" s="12"/>
       <c r="G119" s="12"/>
       <c r="H119" s="12"/>
       <c r="I119" s="12" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="J119" s="12" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="K119" s="12" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="L119" s="12"/>
       <c r="M119" s="12"/>
       <c r="N119" s="12"/>
       <c r="O119" s="12" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="P119" s="12"/>
     </row>
-    <row r="120" spans="3:16">
+    <row r="120" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C120" s="12"/>
       <c r="D120" s="12" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F120" s="12"/>
       <c r="G120" s="12"/>
       <c r="H120" s="12"/>
       <c r="I120" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J120" s="12"/>
       <c r="K120" s="12" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="L120" s="12"/>
       <c r="M120" s="12"/>
       <c r="N120" s="12"/>
       <c r="O120" s="12" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P120" s="12"/>
     </row>
-    <row r="121" spans="3:16">
+    <row r="121" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C121" s="12"/>
       <c r="D121" s="12" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F121" s="12"/>
       <c r="G121" s="12"/>
       <c r="H121" s="12"/>
       <c r="I121" s="12" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="J121" s="12"/>
       <c r="K121" s="12" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="L121" s="12"/>
       <c r="M121" s="12"/>
       <c r="N121" s="12"/>
       <c r="O121" s="12" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P121" s="12"/>
     </row>
-    <row r="122" spans="3:16">
+    <row r="122" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C122" s="12"/>
       <c r="D122" s="12" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F122" s="12"/>
       <c r="G122" s="12"/>
       <c r="H122" s="12"/>
       <c r="I122" s="12" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="J122" s="12" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="K122" s="12" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="L122" s="12"/>
       <c r="M122" s="12"/>
       <c r="N122" s="12"/>
       <c r="O122" s="12" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P122" s="12"/>
     </row>
-    <row r="123" spans="3:16">
+    <row r="123" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C123" s="12"/>
       <c r="D123" s="12" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F123" s="12"/>
       <c r="G123" s="12"/>
       <c r="H123" s="12"/>
       <c r="I123" s="12" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="J123" s="12"/>
       <c r="K123" s="12" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="L123" s="12"/>
       <c r="M123" s="12"/>
       <c r="N123" s="12"/>
       <c r="O123" s="12" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P123" s="12"/>
     </row>
-    <row r="124" spans="3:16">
+    <row r="124" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C124" s="12"/>
       <c r="D124" s="12" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F124" s="12"/>
       <c r="G124" s="12"/>
       <c r="H124" s="12"/>
       <c r="I124" s="12" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="J124" s="12"/>
       <c r="K124" s="12" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L124" s="12"/>
       <c r="M124" s="12"/>
@@ -5013,23 +4971,23 @@
       <c r="O124" s="12"/>
       <c r="P124" s="12"/>
     </row>
-    <row r="125" spans="3:16">
+    <row r="125" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C125" s="12"/>
       <c r="D125" s="12" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F125" s="12"/>
       <c r="G125" s="12"/>
       <c r="H125" s="12"/>
       <c r="I125" s="12" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="J125" s="12"/>
       <c r="K125" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L125" s="12"/>
       <c r="M125" s="12"/>
@@ -5037,25 +4995,25 @@
       <c r="O125" s="12"/>
       <c r="P125" s="12"/>
     </row>
-    <row r="126" spans="3:16">
+    <row r="126" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C126" s="12" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="F126" s="12"/>
       <c r="G126" s="12"/>
       <c r="H126" s="12"/>
       <c r="I126" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J126" s="12"/>
       <c r="K126" s="12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L126" s="12"/>
       <c r="M126" s="12"/>
@@ -5063,23 +5021,23 @@
       <c r="O126" s="12"/>
       <c r="P126" s="12"/>
     </row>
-    <row r="127" spans="3:16">
+    <row r="127" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C127" s="12"/>
       <c r="D127" s="12" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F127" s="12"/>
       <c r="G127" s="12"/>
       <c r="H127" s="12"/>
       <c r="I127" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J127" s="12"/>
       <c r="K127" s="12" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="L127" s="12"/>
       <c r="M127" s="12"/>
@@ -5087,23 +5045,23 @@
       <c r="O127" s="12"/>
       <c r="P127" s="12"/>
     </row>
-    <row r="128" spans="3:16">
+    <row r="128" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C128" s="12"/>
       <c r="D128" s="12" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
       <c r="H128" s="12"/>
       <c r="I128" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J128" s="12"/>
       <c r="K128" s="12" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="L128" s="12"/>
       <c r="M128" s="12"/>
@@ -5111,23 +5069,23 @@
       <c r="O128" s="12"/>
       <c r="P128" s="12"/>
     </row>
-    <row r="129" spans="3:16">
+    <row r="129" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C129" s="12"/>
       <c r="D129" s="12" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="F129" s="12"/>
       <c r="G129" s="12"/>
       <c r="H129" s="12"/>
       <c r="I129" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J129" s="12"/>
       <c r="K129" s="12" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="L129" s="12"/>
       <c r="M129" s="12"/>
@@ -5135,23 +5093,23 @@
       <c r="O129" s="12"/>
       <c r="P129" s="12"/>
     </row>
-    <row r="130" spans="3:16">
+    <row r="130" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C130" s="12"/>
       <c r="D130" s="12" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="F130" s="12"/>
       <c r="G130" s="12"/>
       <c r="H130" s="12"/>
       <c r="I130" s="12" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="J130" s="12"/>
       <c r="K130" s="12" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="L130" s="12"/>
       <c r="M130" s="12"/>
@@ -5159,23 +5117,23 @@
       <c r="O130" s="12"/>
       <c r="P130" s="12"/>
     </row>
-    <row r="131" spans="3:16">
+    <row r="131" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C131" s="12"/>
       <c r="D131" s="12" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F131" s="12"/>
       <c r="G131" s="12"/>
       <c r="H131" s="12"/>
       <c r="I131" s="12" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="J131" s="12"/>
       <c r="K131" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L131" s="12"/>
       <c r="M131" s="12"/>
@@ -5183,25 +5141,25 @@
       <c r="O131" s="12"/>
       <c r="P131" s="12"/>
     </row>
-    <row r="132" spans="3:16">
+    <row r="132" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C132" s="12"/>
       <c r="D132" s="12" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F132" s="12"/>
       <c r="G132" s="12"/>
       <c r="H132" s="12"/>
       <c r="I132" s="12" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="J132" s="12" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="K132" s="12" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="L132" s="12"/>
       <c r="M132" s="12"/>
@@ -5209,51 +5167,51 @@
       <c r="O132" s="12"/>
       <c r="P132" s="12"/>
     </row>
-    <row r="133" spans="3:16">
+    <row r="133" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C133" s="12"/>
       <c r="D133" s="12" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="F133" s="12"/>
       <c r="G133" s="12"/>
       <c r="H133" s="12"/>
       <c r="I133" s="12" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="J133" s="12" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="K133" s="12" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="L133" s="12"/>
       <c r="M133" s="12"/>
       <c r="N133" s="12" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="O133" s="12"/>
       <c r="P133" s="12"/>
     </row>
-    <row r="134" spans="3:16">
+    <row r="134" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C134" s="12"/>
       <c r="D134" s="12" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F134" s="12"/>
       <c r="G134" s="12"/>
       <c r="H134" s="12"/>
       <c r="I134" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J134" s="12"/>
       <c r="K134" s="12" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="L134" s="12"/>
       <c r="M134" s="12"/>
@@ -5261,23 +5219,23 @@
       <c r="O134" s="12"/>
       <c r="P134" s="12"/>
     </row>
-    <row r="135" spans="3:16">
+    <row r="135" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C135" s="12"/>
       <c r="D135" s="12" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F135" s="12"/>
       <c r="G135" s="12"/>
       <c r="H135" s="12"/>
       <c r="I135" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J135" s="12"/>
       <c r="K135" s="12" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="L135" s="12"/>
       <c r="M135" s="12"/>
@@ -5285,23 +5243,23 @@
       <c r="O135" s="12"/>
       <c r="P135" s="12"/>
     </row>
-    <row r="136" spans="3:16">
+    <row r="136" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C136" s="12"/>
       <c r="D136" s="12" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="F136" s="12"/>
       <c r="G136" s="12"/>
       <c r="H136" s="12"/>
       <c r="I136" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J136" s="12"/>
       <c r="K136" s="12" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="L136" s="12"/>
       <c r="M136" s="12"/>
@@ -5309,23 +5267,23 @@
       <c r="O136" s="12"/>
       <c r="P136" s="12"/>
     </row>
-    <row r="137" spans="3:16">
+    <row r="137" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C137" s="12"/>
       <c r="D137" s="12" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F137" s="12"/>
       <c r="G137" s="12"/>
       <c r="H137" s="12"/>
       <c r="I137" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J137" s="12"/>
       <c r="K137" s="12" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="L137" s="12"/>
       <c r="M137" s="12"/>
@@ -5333,23 +5291,23 @@
       <c r="O137" s="12"/>
       <c r="P137" s="12"/>
     </row>
-    <row r="138" spans="3:16">
+    <row r="138" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C138" s="12"/>
       <c r="D138" s="12" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="F138" s="12"/>
       <c r="G138" s="12"/>
       <c r="H138" s="12"/>
       <c r="I138" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J138" s="12"/>
       <c r="K138" s="12" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="L138" s="12"/>
       <c r="M138" s="12"/>
@@ -5357,23 +5315,23 @@
       <c r="O138" s="12"/>
       <c r="P138" s="12"/>
     </row>
-    <row r="139" spans="3:16">
+    <row r="139" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C139" s="12"/>
       <c r="D139" s="12" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F139" s="12"/>
       <c r="G139" s="12"/>
       <c r="H139" s="12"/>
       <c r="I139" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J139" s="12"/>
       <c r="K139" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L139" s="12"/>
       <c r="M139" s="12"/>
@@ -5381,131 +5339,131 @@
       <c r="O139" s="12"/>
       <c r="P139" s="12"/>
     </row>
-    <row r="140" spans="3:16">
+    <row r="140" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C140" s="12" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="F140" s="12"/>
       <c r="G140" s="12"/>
       <c r="H140" s="12"/>
       <c r="I140" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J140" s="12" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="K140" s="12"/>
       <c r="L140" s="12"/>
       <c r="M140" s="12"/>
       <c r="N140" s="12" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="O140" s="12"/>
       <c r="P140" s="12"/>
     </row>
-    <row r="141" spans="3:16">
+    <row r="141" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C141" s="12"/>
       <c r="D141" s="12" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="F141" s="12"/>
       <c r="G141" s="12"/>
       <c r="H141" s="12"/>
       <c r="I141" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J141" s="12" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K141" s="12"/>
       <c r="L141" s="12"/>
       <c r="M141" s="12"/>
       <c r="N141" s="12" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="O141" s="12"/>
       <c r="P141" s="12"/>
     </row>
-    <row r="142" spans="3:16">
+    <row r="142" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C142" s="12"/>
       <c r="D142" s="12" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="F142" s="12"/>
       <c r="G142" s="12"/>
       <c r="H142" s="12"/>
       <c r="I142" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J142" s="12" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="K142" s="12"/>
       <c r="L142" s="12"/>
       <c r="M142" s="12"/>
       <c r="N142" s="12" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="O142" s="12"/>
       <c r="P142" s="12"/>
     </row>
-    <row r="143" spans="3:16">
+    <row r="143" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C143" s="12"/>
       <c r="D143" s="12" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="F143" s="12"/>
       <c r="G143" s="12"/>
       <c r="H143" s="12"/>
       <c r="I143" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J143" s="12" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="K143" s="12"/>
       <c r="L143" s="12"/>
       <c r="M143" s="12"/>
       <c r="N143" s="12" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="O143" s="12"/>
       <c r="P143" s="12"/>
     </row>
-    <row r="144" spans="3:16">
+    <row r="144" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C144" s="12" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="F144" s="12"/>
       <c r="G144" s="12"/>
       <c r="H144" s="12"/>
       <c r="I144" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J144" s="12"/>
       <c r="K144" s="12" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="L144" s="12"/>
       <c r="M144" s="12"/>
@@ -5513,25 +5471,25 @@
       <c r="O144" s="12"/>
       <c r="P144" s="12"/>
     </row>
-    <row r="145" spans="3:16">
+    <row r="145" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C145" s="12"/>
       <c r="D145" s="12" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F145" s="12" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="G145" s="12"/>
       <c r="H145" s="12"/>
       <c r="I145" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J145" s="12"/>
       <c r="K145" s="12" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="L145" s="12"/>
       <c r="M145" s="12"/>
@@ -5539,23 +5497,23 @@
       <c r="O145" s="12"/>
       <c r="P145" s="12"/>
     </row>
-    <row r="146" spans="3:16">
+    <row r="146" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C146" s="12"/>
       <c r="D146" s="12" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F146" s="12"/>
       <c r="G146" s="12"/>
       <c r="H146" s="12"/>
       <c r="I146" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J146" s="12"/>
       <c r="K146" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L146" s="12"/>
       <c r="M146" s="12"/>
@@ -5563,53 +5521,53 @@
       <c r="O146" s="12"/>
       <c r="P146" s="12"/>
     </row>
-    <row r="147" spans="3:16">
+    <row r="147" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C147" s="12" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="F147" s="12"/>
       <c r="G147" s="12"/>
       <c r="H147" s="12"/>
       <c r="I147" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J147" s="12" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="K147" s="12"/>
       <c r="L147" s="12"/>
       <c r="M147" s="12"/>
       <c r="N147" s="12" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="O147" s="12"/>
       <c r="P147" s="12"/>
     </row>
-    <row r="148" spans="3:16">
+    <row r="148" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C148" s="12" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F148" s="12"/>
       <c r="G148" s="12"/>
       <c r="H148" s="12"/>
       <c r="I148" s="12" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J148" s="12"/>
       <c r="K148" s="12" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="L148" s="12"/>
       <c r="M148" s="12"/>
@@ -5617,23 +5575,23 @@
       <c r="O148" s="12"/>
       <c r="P148" s="12"/>
     </row>
-    <row r="149" spans="3:16">
+    <row r="149" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C149" s="12"/>
       <c r="D149" s="12" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="F149" s="12"/>
       <c r="G149" s="12"/>
       <c r="H149" s="12"/>
       <c r="I149" s="12" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J149" s="12"/>
       <c r="K149" s="12" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="L149" s="12"/>
       <c r="M149" s="12"/>
@@ -5641,23 +5599,23 @@
       <c r="O149" s="12"/>
       <c r="P149" s="12"/>
     </row>
-    <row r="150" spans="3:16">
+    <row r="150" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C150" s="12"/>
       <c r="D150" s="12" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="F150" s="12"/>
       <c r="G150" s="12"/>
       <c r="H150" s="12"/>
       <c r="I150" s="12" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J150" s="12"/>
       <c r="K150" s="12" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="L150" s="12"/>
       <c r="M150" s="12"/>
@@ -5665,23 +5623,23 @@
       <c r="O150" s="12"/>
       <c r="P150" s="12"/>
     </row>
-    <row r="151" spans="3:16">
+    <row r="151" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C151" s="12"/>
       <c r="D151" s="12" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="F151" s="12"/>
       <c r="G151" s="12"/>
       <c r="H151" s="12"/>
       <c r="I151" s="12" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J151" s="12"/>
       <c r="K151" s="12" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="L151" s="12"/>
       <c r="M151" s="12"/>
@@ -5689,23 +5647,23 @@
       <c r="O151" s="12"/>
       <c r="P151" s="12"/>
     </row>
-    <row r="152" spans="3:16">
+    <row r="152" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C152" s="12"/>
       <c r="D152" s="12" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F152" s="12"/>
       <c r="G152" s="12"/>
       <c r="H152" s="12"/>
       <c r="I152" s="12" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J152" s="12"/>
       <c r="K152" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L152" s="12"/>
       <c r="M152" s="12"/>
@@ -5713,49 +5671,49 @@
       <c r="O152" s="12"/>
       <c r="P152" s="12"/>
     </row>
-    <row r="153" spans="3:16">
+    <row r="153" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C153" s="12"/>
       <c r="D153" s="12" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="E153" s="12"/>
       <c r="F153" s="12"/>
       <c r="G153" s="12"/>
       <c r="H153" s="12"/>
       <c r="I153" s="12" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="J153" s="12"/>
       <c r="K153" s="12"/>
       <c r="L153" s="12"/>
       <c r="M153" s="12"/>
       <c r="N153" s="12" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="O153" s="12"/>
       <c r="P153" s="12"/>
     </row>
-    <row r="154" spans="3:16">
+    <row r="154" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C154" s="12" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F154" s="12"/>
       <c r="G154" s="12"/>
       <c r="H154" s="12"/>
       <c r="I154" s="12" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="J154" s="12" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="K154" s="12" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="L154" s="12"/>
       <c r="M154" s="12"/>
@@ -5763,25 +5721,25 @@
       <c r="O154" s="12"/>
       <c r="P154" s="12"/>
     </row>
-    <row r="155" spans="3:16">
+    <row r="155" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C155" s="12"/>
       <c r="D155" s="12" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="F155" s="12"/>
       <c r="G155" s="12"/>
       <c r="H155" s="12"/>
       <c r="I155" s="12" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="J155" s="12" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="K155" s="12" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="L155" s="12"/>
       <c r="M155" s="12"/>
@@ -5789,25 +5747,25 @@
       <c r="O155" s="12"/>
       <c r="P155" s="12"/>
     </row>
-    <row r="156" spans="3:16">
+    <row r="156" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C156" s="12"/>
       <c r="D156" s="12" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="E156" s="12" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="F156" s="12"/>
       <c r="G156" s="12"/>
       <c r="H156" s="12"/>
       <c r="I156" s="12" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="J156" s="12" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="K156" s="12" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="L156" s="12"/>
       <c r="M156" s="12"/>
@@ -5815,25 +5773,25 @@
       <c r="O156" s="12"/>
       <c r="P156" s="12"/>
     </row>
-    <row r="157" spans="3:16">
+    <row r="157" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C157" s="12"/>
       <c r="D157" s="12" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="E157" s="12" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="F157" s="12"/>
       <c r="G157" s="12"/>
       <c r="H157" s="12"/>
       <c r="I157" s="12" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="J157" s="12" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="K157" s="12" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="L157" s="12"/>
       <c r="M157" s="12"/>
@@ -5841,23 +5799,23 @@
       <c r="O157" s="12"/>
       <c r="P157" s="12"/>
     </row>
-    <row r="158" spans="3:16">
+    <row r="158" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C158" s="12"/>
       <c r="D158" s="12" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F158" s="12"/>
       <c r="G158" s="12"/>
       <c r="H158" s="12"/>
       <c r="I158" s="12" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="J158" s="12"/>
       <c r="K158" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L158" s="12"/>
       <c r="M158" s="12"/>
@@ -5865,131 +5823,131 @@
       <c r="O158" s="12"/>
       <c r="P158" s="12"/>
     </row>
-    <row r="159" spans="3:16">
+    <row r="159" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C159" s="12" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="F159" s="12"/>
       <c r="G159" s="12"/>
       <c r="H159" s="12"/>
       <c r="I159" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J159" s="12" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="K159" s="12"/>
       <c r="L159" s="12"/>
       <c r="M159" s="12"/>
       <c r="N159" s="12" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="O159" s="12"/>
       <c r="P159" s="12"/>
     </row>
-    <row r="160" spans="3:16">
+    <row r="160" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C160" s="12"/>
       <c r="D160" s="12" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="F160" s="12"/>
       <c r="G160" s="12"/>
       <c r="H160" s="12"/>
       <c r="I160" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J160" s="12" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K160" s="12"/>
       <c r="L160" s="12"/>
       <c r="M160" s="12"/>
       <c r="N160" s="12" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="O160" s="12"/>
       <c r="P160" s="12"/>
     </row>
-    <row r="161" spans="3:16">
+    <row r="161" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C161" s="12"/>
       <c r="D161" s="12" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="E161" s="12" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="F161" s="12"/>
       <c r="G161" s="12"/>
       <c r="H161" s="12"/>
       <c r="I161" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J161" s="12" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="K161" s="12"/>
       <c r="L161" s="12"/>
       <c r="M161" s="12"/>
       <c r="N161" s="12" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="O161" s="12"/>
       <c r="P161" s="12"/>
     </row>
-    <row r="162" spans="3:16">
+    <row r="162" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C162" s="12"/>
       <c r="D162" s="12" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="E162" s="12" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="F162" s="12"/>
       <c r="G162" s="12"/>
       <c r="H162" s="12"/>
       <c r="I162" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J162" s="12" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="K162" s="12"/>
       <c r="L162" s="12"/>
       <c r="M162" s="12"/>
       <c r="N162" s="12" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="O162" s="12"/>
       <c r="P162" s="12"/>
     </row>
-    <row r="163" spans="3:16">
+    <row r="163" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C163" s="12" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="E163" s="12" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F163" s="12"/>
       <c r="G163" s="12"/>
       <c r="H163" s="12"/>
       <c r="I163" s="12" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J163" s="12"/>
       <c r="K163" s="12" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="L163" s="12"/>
       <c r="M163" s="12"/>
@@ -5997,23 +5955,23 @@
       <c r="O163" s="12"/>
       <c r="P163" s="12"/>
     </row>
-    <row r="164" spans="3:16">
+    <row r="164" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C164" s="12"/>
       <c r="D164" s="12" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="E164" s="12" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F164" s="12"/>
       <c r="G164" s="12"/>
       <c r="H164" s="12"/>
       <c r="I164" s="12" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J164" s="12"/>
       <c r="K164" s="12" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="L164" s="12"/>
       <c r="M164" s="12"/>
@@ -6021,23 +5979,23 @@
       <c r="O164" s="12"/>
       <c r="P164" s="12"/>
     </row>
-    <row r="165" spans="3:16">
+    <row r="165" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C165" s="12"/>
       <c r="D165" s="12" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="E165" s="12" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="F165" s="12"/>
       <c r="G165" s="12"/>
       <c r="H165" s="12"/>
       <c r="I165" s="12" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J165" s="12"/>
       <c r="K165" s="12" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="L165" s="12"/>
       <c r="M165" s="12"/>
@@ -6045,23 +6003,23 @@
       <c r="O165" s="12"/>
       <c r="P165" s="12"/>
     </row>
-    <row r="166" spans="3:16">
+    <row r="166" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C166" s="12"/>
       <c r="D166" s="12" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="E166" s="12" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="F166" s="12"/>
       <c r="G166" s="12"/>
       <c r="H166" s="12"/>
       <c r="I166" s="12" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J166" s="12"/>
       <c r="K166" s="12" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="L166" s="12"/>
       <c r="M166" s="12"/>
@@ -6069,23 +6027,23 @@
       <c r="O166" s="12"/>
       <c r="P166" s="12"/>
     </row>
-    <row r="167" spans="3:16">
+    <row r="167" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C167" s="12"/>
       <c r="D167" s="12" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="E167" s="12" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="F167" s="12"/>
       <c r="G167" s="12"/>
       <c r="H167" s="12"/>
       <c r="I167" s="12" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J167" s="12"/>
       <c r="K167" s="12" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="L167" s="12"/>
       <c r="M167" s="12"/>
@@ -6093,23 +6051,23 @@
       <c r="O167" s="12"/>
       <c r="P167" s="12"/>
     </row>
-    <row r="168" spans="3:16">
+    <row r="168" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C168" s="12"/>
       <c r="D168" s="12" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="E168" s="12" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="F168" s="12"/>
       <c r="G168" s="12"/>
       <c r="H168" s="12"/>
       <c r="I168" s="12" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J168" s="12"/>
       <c r="K168" s="12" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="L168" s="12"/>
       <c r="M168" s="12"/>
@@ -6117,23 +6075,23 @@
       <c r="O168" s="12"/>
       <c r="P168" s="12"/>
     </row>
-    <row r="169" spans="3:16">
+    <row r="169" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C169" s="12"/>
       <c r="D169" s="12" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="E169" s="12" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F169" s="12"/>
       <c r="G169" s="12"/>
       <c r="H169" s="12"/>
       <c r="I169" s="12" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J169" s="12"/>
       <c r="K169" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L169" s="12"/>
       <c r="M169" s="12"/>
@@ -6141,51 +6099,51 @@
       <c r="O169" s="12"/>
       <c r="P169" s="12"/>
     </row>
-    <row r="170" spans="3:16">
+    <row r="170" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C170" s="12"/>
       <c r="D170" s="12" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="E170" s="12"/>
       <c r="F170" s="12"/>
       <c r="G170" s="12"/>
       <c r="H170" s="12"/>
       <c r="I170" s="12" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="J170" s="12"/>
       <c r="K170" s="12" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="L170" s="12"/>
       <c r="M170" s="12"/>
       <c r="N170" s="12" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="O170" s="12"/>
       <c r="P170" s="12"/>
     </row>
-    <row r="171" spans="3:16">
+    <row r="171" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C171" s="12" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="E171" s="12" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F171" s="12"/>
       <c r="G171" s="12"/>
       <c r="H171" s="12"/>
       <c r="I171" s="12" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="J171" s="12" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="K171" s="12" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="L171" s="12"/>
       <c r="M171" s="12"/>
@@ -6193,25 +6151,25 @@
       <c r="O171" s="12"/>
       <c r="P171" s="12"/>
     </row>
-    <row r="172" spans="3:16">
+    <row r="172" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C172" s="12"/>
       <c r="D172" s="12" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="E172" s="12" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F172" s="12"/>
       <c r="G172" s="12"/>
       <c r="H172" s="12"/>
       <c r="I172" s="12" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="J172" s="12" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="K172" s="12" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="L172" s="12"/>
       <c r="M172" s="12"/>
@@ -6219,23 +6177,23 @@
       <c r="O172" s="12"/>
       <c r="P172" s="12"/>
     </row>
-    <row r="173" spans="3:16">
+    <row r="173" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C173" s="12"/>
       <c r="D173" s="12" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="E173" s="12" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="F173" s="12"/>
       <c r="G173" s="12"/>
       <c r="H173" s="12"/>
       <c r="I173" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J173" s="12"/>
       <c r="K173" s="12" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="L173" s="12"/>
       <c r="M173" s="12"/>
@@ -6243,23 +6201,23 @@
       <c r="O173" s="12"/>
       <c r="P173" s="12"/>
     </row>
-    <row r="174" spans="3:16">
+    <row r="174" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C174" s="12"/>
       <c r="D174" s="12" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="E174" s="12" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="F174" s="12"/>
       <c r="G174" s="12"/>
       <c r="H174" s="12"/>
       <c r="I174" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J174" s="12"/>
       <c r="K174" s="12" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="L174" s="12"/>
       <c r="M174" s="12"/>
@@ -6267,23 +6225,23 @@
       <c r="O174" s="12"/>
       <c r="P174" s="12"/>
     </row>
-    <row r="175" spans="3:16">
+    <row r="175" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C175" s="12"/>
       <c r="D175" s="12" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="E175" s="12" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="F175" s="12"/>
       <c r="G175" s="12"/>
       <c r="H175" s="12"/>
       <c r="I175" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J175" s="12"/>
       <c r="K175" s="12" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="L175" s="12"/>
       <c r="M175" s="12"/>
@@ -6291,23 +6249,23 @@
       <c r="O175" s="12"/>
       <c r="P175" s="12"/>
     </row>
-    <row r="176" spans="3:16">
+    <row r="176" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C176" s="12"/>
       <c r="D176" s="12" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="E176" s="12" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="F176" s="12"/>
       <c r="G176" s="12"/>
       <c r="H176" s="12"/>
       <c r="I176" s="12" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="J176" s="12"/>
       <c r="K176" s="12" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="L176" s="12"/>
       <c r="M176" s="12"/>
@@ -6315,23 +6273,23 @@
       <c r="O176" s="12"/>
       <c r="P176" s="12"/>
     </row>
-    <row r="177" spans="3:16">
+    <row r="177" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C177" s="12"/>
       <c r="D177" s="12" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="E177" s="12" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F177" s="12"/>
       <c r="G177" s="12"/>
       <c r="H177" s="12"/>
       <c r="I177" s="12" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="J177" s="12"/>
       <c r="K177" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L177" s="12"/>
       <c r="M177" s="12"/>
@@ -6339,543 +6297,569 @@
       <c r="O177" s="12"/>
       <c r="P177" s="12"/>
     </row>
-    <row r="178" spans="3:16">
+    <row r="178" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C178" s="12" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D178" s="12" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="E178" s="12" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="F178" s="12"/>
       <c r="G178" s="12"/>
       <c r="H178" s="12"/>
       <c r="I178" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J178" s="12" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="K178" s="12"/>
       <c r="L178" s="12"/>
       <c r="M178" s="12"/>
       <c r="N178" s="12" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="O178" s="12"/>
       <c r="P178" s="12"/>
     </row>
-    <row r="179" spans="3:16">
+    <row r="179" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C179" s="12"/>
       <c r="D179" s="12" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="E179" s="12" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="F179" s="12"/>
       <c r="G179" s="12"/>
       <c r="H179" s="12"/>
       <c r="I179" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J179" s="12" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K179" s="12"/>
       <c r="L179" s="12"/>
       <c r="M179" s="12"/>
       <c r="N179" s="12" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="O179" s="12"/>
       <c r="P179" s="12"/>
     </row>
-    <row r="180" spans="3:16">
+    <row r="180" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C180" s="12"/>
       <c r="D180" s="12" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="E180" s="12" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="F180" s="12"/>
       <c r="G180" s="12"/>
       <c r="H180" s="12"/>
       <c r="I180" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J180" s="12" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="K180" s="12"/>
       <c r="L180" s="12"/>
       <c r="M180" s="12"/>
       <c r="N180" s="12" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="O180" s="12"/>
       <c r="P180" s="12"/>
     </row>
-    <row r="181" spans="3:16">
+    <row r="181" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C181" s="12"/>
       <c r="D181" s="12" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="E181" s="12" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="F181" s="12"/>
       <c r="G181" s="12"/>
       <c r="H181" s="12"/>
       <c r="I181" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J181" s="12" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="K181" s="12"/>
       <c r="L181" s="12"/>
       <c r="M181" s="12"/>
       <c r="N181" s="12" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="O181" s="12"/>
       <c r="P181" s="12"/>
     </row>
-    <row r="182" spans="3:16">
+    <row r="182" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C182" s="12" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D182" s="12" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="E182" s="12" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F182" s="12"/>
       <c r="G182" s="12"/>
       <c r="H182" s="12"/>
       <c r="I182" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="J182" s="12" t="s">
-        <v>425</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="J182" s="12"/>
       <c r="K182" s="12" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="L182" s="12"/>
       <c r="M182" s="12"/>
       <c r="N182" s="12"/>
       <c r="O182" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="P182" s="12"/>
     </row>
-    <row r="183" spans="3:16">
+    <row r="183" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C183" s="12"/>
       <c r="D183" s="12" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="E183" s="12" t="s">
-        <v>428</v>
+        <v>139</v>
       </c>
       <c r="F183" s="12"/>
       <c r="G183" s="12"/>
       <c r="H183" s="12"/>
       <c r="I183" s="12" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="J183" s="12" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="K183" s="12" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="L183" s="12"/>
       <c r="M183" s="12"/>
       <c r="N183" s="12"/>
       <c r="O183" s="12" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="P183" s="12"/>
     </row>
-    <row r="184" spans="3:16">
+    <row r="184" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C184" s="12"/>
       <c r="D184" s="12" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="E184" s="12" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="F184" s="12"/>
       <c r="G184" s="12"/>
       <c r="H184" s="12"/>
       <c r="I184" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="J184" s="12"/>
+        <v>166</v>
+      </c>
+      <c r="J184" s="12" t="s">
+        <v>440</v>
+      </c>
       <c r="K184" s="12" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="L184" s="12"/>
       <c r="M184" s="12"/>
       <c r="N184" s="12"/>
-      <c r="O184" s="12"/>
+      <c r="O184" s="12" t="s">
+        <v>188</v>
+      </c>
       <c r="P184" s="12"/>
     </row>
-    <row r="185" spans="3:16">
+    <row r="185" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C185" s="12"/>
       <c r="D185" s="12" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="E185" s="12" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="F185" s="12"/>
       <c r="G185" s="12"/>
       <c r="H185" s="12"/>
       <c r="I185" s="12" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="J185" s="12"/>
       <c r="K185" s="12" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="L185" s="12"/>
       <c r="M185" s="12"/>
       <c r="N185" s="12"/>
-      <c r="O185" s="12" t="s">
-        <v>163</v>
-      </c>
+      <c r="O185" s="12"/>
       <c r="P185" s="12"/>
     </row>
-    <row r="186" spans="3:16">
+    <row r="186" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C186" s="12"/>
       <c r="D186" s="12" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="E186" s="12" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="F186" s="12"/>
       <c r="G186" s="12"/>
       <c r="H186" s="12"/>
       <c r="I186" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="J186" s="12" t="s">
-        <v>439</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="J186" s="12"/>
       <c r="K186" s="12" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="L186" s="12"/>
       <c r="M186" s="12"/>
       <c r="N186" s="12"/>
       <c r="O186" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="P186" s="12"/>
     </row>
-    <row r="187" spans="3:16">
+    <row r="187" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C187" s="12"/>
       <c r="D187" s="12" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="E187" s="12" t="s">
-        <v>121</v>
+        <v>449</v>
       </c>
       <c r="F187" s="12"/>
       <c r="G187" s="12"/>
       <c r="H187" s="12"/>
       <c r="I187" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="J187" s="12"/>
+        <v>166</v>
+      </c>
+      <c r="J187" s="12" t="s">
+        <v>450</v>
+      </c>
       <c r="K187" s="12" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="L187" s="12"/>
       <c r="M187" s="12"/>
       <c r="N187" s="12"/>
       <c r="O187" s="12" t="s">
-        <v>443</v>
+        <v>188</v>
       </c>
       <c r="P187" s="12"/>
     </row>
-    <row r="188" spans="3:16">
+    <row r="188" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C188" s="12"/>
       <c r="D188" s="12" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="E188" s="12" t="s">
-        <v>445</v>
+        <v>130</v>
       </c>
       <c r="F188" s="12"/>
       <c r="G188" s="12"/>
       <c r="H188" s="12"/>
       <c r="I188" s="12" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="J188" s="12"/>
       <c r="K188" s="12" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="L188" s="12"/>
       <c r="M188" s="12"/>
       <c r="N188" s="12"/>
       <c r="O188" s="12" t="s">
-        <v>163</v>
+        <v>454</v>
       </c>
       <c r="P188" s="12"/>
     </row>
-    <row r="189" spans="3:16">
+    <row r="189" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C189" s="12"/>
       <c r="D189" s="12" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="E189" s="12" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="F189" s="12"/>
       <c r="G189" s="12"/>
       <c r="H189" s="12"/>
       <c r="I189" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J189" s="12"/>
       <c r="K189" s="12" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="L189" s="12"/>
       <c r="M189" s="12"/>
       <c r="N189" s="12"/>
       <c r="O189" s="12" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P189" s="12"/>
     </row>
-    <row r="190" spans="3:16">
+    <row r="190" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C190" s="12"/>
       <c r="D190" s="12" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="E190" s="12" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="F190" s="12"/>
       <c r="G190" s="12"/>
       <c r="H190" s="12"/>
       <c r="I190" s="12" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J190" s="12"/>
       <c r="K190" s="12" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="L190" s="12"/>
       <c r="M190" s="12"/>
       <c r="N190" s="12"/>
       <c r="O190" s="12" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P190" s="12"/>
     </row>
-    <row r="191" spans="3:16">
+    <row r="191" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C191" s="12"/>
       <c r="D191" s="12" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="E191" s="12" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="F191" s="12"/>
       <c r="G191" s="12"/>
       <c r="H191" s="12"/>
       <c r="I191" s="12" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="J191" s="12"/>
       <c r="K191" s="12" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="L191" s="12"/>
       <c r="M191" s="12"/>
       <c r="N191" s="12"/>
       <c r="O191" s="12" t="s">
-        <v>443</v>
+        <v>173</v>
       </c>
       <c r="P191" s="12"/>
     </row>
-    <row r="192" spans="3:16">
-      <c r="C192" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D192" s="3"/>
-      <c r="E192" s="3"/>
-      <c r="F192" s="3"/>
-      <c r="G192" s="3"/>
-      <c r="H192" s="3"/>
-      <c r="I192" s="3"/>
-      <c r="J192" s="3"/>
-      <c r="K192" s="3"/>
-      <c r="L192" s="3"/>
-      <c r="M192" s="3"/>
-      <c r="N192" s="3"/>
-      <c r="O192" s="3"/>
-      <c r="P192" s="3"/>
-    </row>
-    <row r="196" spans="1:7">
-      <c r="A196" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E196" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
-      <c r="C197" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="D197" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="E197" s="12"/>
-    </row>
-    <row r="198" spans="1:7">
+    <row r="192" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C192" s="12"/>
+      <c r="D192" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="E192" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="F192" s="12"/>
+      <c r="G192" s="12"/>
+      <c r="H192" s="12"/>
+      <c r="I192" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="J192" s="12"/>
+      <c r="K192" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="L192" s="12"/>
+      <c r="M192" s="12"/>
+      <c r="N192" s="12"/>
+      <c r="O192" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="P192" s="12"/>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C193" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3"/>
+      <c r="I193" s="3"/>
+      <c r="J193" s="3"/>
+      <c r="K193" s="3"/>
+      <c r="L193" s="3"/>
+      <c r="M193" s="3"/>
+      <c r="N193" s="3"/>
+      <c r="O193" s="3"/>
+      <c r="P193" s="3"/>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A197" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C198" s="12" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="D198" s="12" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="E198" s="12"/>
     </row>
-    <row r="199" spans="1:7">
-      <c r="C199" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D199" s="3"/>
-      <c r="E199" s="3"/>
-    </row>
-    <row r="202" spans="1:7">
-      <c r="B202" s="1"/>
-    </row>
-    <row r="203" spans="1:7">
-      <c r="A203" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="E203" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="F203" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="G203" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
-      <c r="C204" s="12"/>
-      <c r="D204" s="12"/>
-      <c r="E204" s="12"/>
-      <c r="F204" s="12"/>
-      <c r="G204" s="12"/>
-    </row>
-    <row r="205" spans="1:7">
-      <c r="C205" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D205" s="3"/>
-      <c r="E205" s="3"/>
-      <c r="F205" s="3"/>
-      <c r="G205" s="3"/>
-    </row>
-    <row r="208" spans="1:7">
-      <c r="B208" s="18" t="s">
-        <v>464</v>
-      </c>
-      <c r="E208" s="8" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11">
-      <c r="A209" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="B209" s="15"/>
-      <c r="C209" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D209" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="E209" s="19" t="s">
-        <v>467</v>
-      </c>
-      <c r="F209" s="19" t="s">
-        <v>468</v>
-      </c>
-      <c r="G209" s="19" t="s">
-        <v>469</v>
-      </c>
-      <c r="H209" s="19" t="s">
-        <v>398</v>
-      </c>
-      <c r="I209" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K209" s="8" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11">
-      <c r="C210" s="12"/>
-      <c r="D210" s="12"/>
-      <c r="E210" s="12"/>
-      <c r="F210" s="12"/>
-      <c r="G210" s="12"/>
-      <c r="H210" s="12"/>
-      <c r="I210" s="12"/>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C199" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="D199" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="E199" s="12"/>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C200" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3"/>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B203" s="1"/>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A204" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C205" s="12"/>
+      <c r="D205" s="12"/>
+      <c r="E205" s="12"/>
+      <c r="F205" s="12"/>
+      <c r="G205" s="12"/>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C206" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B209" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="E209" s="8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A210" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="B210" s="15"/>
+      <c r="C210" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D210" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E210" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="F210" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="G210" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="H210" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="I210" s="19" t="s">
+        <v>34</v>
+      </c>
       <c r="K210" s="8" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11">
-      <c r="C211" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D211" s="3"/>
-      <c r="E211" s="3"/>
-      <c r="F211" s="3"/>
-      <c r="G211" s="3"/>
-      <c r="H211" s="3"/>
-      <c r="I211" s="3"/>
-    </row>
-    <row r="212" spans="1:11">
-      <c r="H212" s="8"/>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C211" s="12"/>
+      <c r="D211" s="12"/>
+      <c r="E211" s="12"/>
+      <c r="F211" s="12"/>
+      <c r="G211" s="12"/>
+      <c r="H211" s="12"/>
+      <c r="I211" s="12"/>
+      <c r="K211" s="8" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C212" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D212" s="3"/>
+      <c r="E212" s="3"/>
+      <c r="F212" s="3"/>
+      <c r="G212" s="3"/>
+      <c r="H212" s="3"/>
+      <c r="I212" s="3"/>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H213" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6885,20 +6869,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A5:C32"/>
   <sheetViews>
@@ -6906,31 +6890,30 @@
       <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/django_backend/var/sys/views/core/ScreenDfn-v0.xlsx
+++ b/django_backend/var/sys/views/core/ScreenDfn-v0.xlsx
@@ -1057,7 +1057,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T214"/>
+  <dimension ref="A1:T213"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         </is>
       </c>
       <c r="C13" s="12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="8" t="inlineStr">
         <is>
@@ -7258,12 +7258,12 @@
       <c r="C188" s="12" t="inlineStr"/>
       <c r="D188" s="12" t="inlineStr">
         <is>
-          <t>recordsetField</t>
+          <t>dataField</t>
         </is>
       </c>
       <c r="E188" s="12" t="inlineStr">
         <is>
-          <t>Recordset</t>
+          <t>Data</t>
         </is>
       </c>
       <c r="F188" s="12" t="n"/>
@@ -7271,18 +7271,13 @@
       <c r="H188" s="12" t="inlineStr"/>
       <c r="I188" s="12" t="inlineStr">
         <is>
-          <t>ComboBox</t>
-        </is>
-      </c>
-      <c r="J188" s="12" t="inlineStr">
-        <is>
-          <t>dataUrl: getScreenRecordsets
-values: {"value": "id", "display": "recordset_nm"}</t>
-        </is>
-      </c>
+          <t>TextArea</t>
+        </is>
+      </c>
+      <c r="J188" s="12" t="n"/>
       <c r="K188" s="12" t="inlineStr">
         <is>
-          <t>recordset</t>
+          <t>data</t>
         </is>
       </c>
       <c r="L188" s="12" t="n"/>
@@ -7290,7 +7285,7 @@
       <c r="N188" s="12" t="n"/>
       <c r="O188" s="12" t="inlineStr">
         <is>
-          <t>width: 260px;</t>
+          <t>width: 256px;</t>
         </is>
       </c>
       <c r="P188" s="12" t="n"/>
@@ -7299,12 +7294,12 @@
       <c r="C189" s="12" t="inlineStr"/>
       <c r="D189" s="12" t="inlineStr">
         <is>
-          <t>dataField</t>
+          <t>dataUrlField</t>
         </is>
       </c>
       <c r="E189" s="12" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>DataUrl</t>
         </is>
       </c>
       <c r="F189" s="12" t="n"/>
@@ -7312,13 +7307,13 @@
       <c r="H189" s="12" t="inlineStr"/>
       <c r="I189" s="12" t="inlineStr">
         <is>
-          <t>TextArea</t>
+          <t>TextBox</t>
         </is>
       </c>
       <c r="J189" s="12" t="n"/>
       <c r="K189" s="12" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>dataUrl</t>
         </is>
       </c>
       <c r="L189" s="12" t="n"/>
@@ -7326,7 +7321,7 @@
       <c r="N189" s="12" t="n"/>
       <c r="O189" s="12" t="inlineStr">
         <is>
-          <t>width: 256px;</t>
+          <t>width: 255px;</t>
         </is>
       </c>
       <c r="P189" s="12" t="n"/>
@@ -7335,12 +7330,12 @@
       <c r="C190" s="12" t="inlineStr"/>
       <c r="D190" s="12" t="inlineStr">
         <is>
-          <t>dataUrlField</t>
+          <t>valuesField</t>
         </is>
       </c>
       <c r="E190" s="12" t="inlineStr">
         <is>
-          <t>DataUrl</t>
+          <t>Values</t>
         </is>
       </c>
       <c r="F190" s="12" t="n"/>
@@ -7354,7 +7349,7 @@
       <c r="J190" s="12" t="n"/>
       <c r="K190" s="12" t="inlineStr">
         <is>
-          <t>dataUrl</t>
+          <t>values</t>
         </is>
       </c>
       <c r="L190" s="12" t="n"/>
@@ -7371,12 +7366,12 @@
       <c r="C191" s="12" t="inlineStr"/>
       <c r="D191" s="12" t="inlineStr">
         <is>
-          <t>valuesField</t>
+          <t>onChangeField</t>
         </is>
       </c>
       <c r="E191" s="12" t="inlineStr">
         <is>
-          <t>Values</t>
+          <t>On Change</t>
         </is>
       </c>
       <c r="F191" s="12" t="n"/>
@@ -7390,7 +7385,7 @@
       <c r="J191" s="12" t="n"/>
       <c r="K191" s="12" t="inlineStr">
         <is>
-          <t>values</t>
+          <t>onChange</t>
         </is>
       </c>
       <c r="L191" s="12" t="n"/>
@@ -7407,12 +7402,12 @@
       <c r="C192" s="12" t="inlineStr"/>
       <c r="D192" s="12" t="inlineStr">
         <is>
-          <t>onChangeField</t>
+          <t>dialogField</t>
         </is>
       </c>
       <c r="E192" s="12" t="inlineStr">
         <is>
-          <t>On Change</t>
+          <t>Dialog</t>
         </is>
       </c>
       <c r="F192" s="12" t="n"/>
@@ -7420,13 +7415,13 @@
       <c r="H192" s="12" t="inlineStr"/>
       <c r="I192" s="12" t="inlineStr">
         <is>
-          <t>TextBox</t>
+          <t>TextArea</t>
         </is>
       </c>
       <c r="J192" s="12" t="n"/>
       <c r="K192" s="12" t="inlineStr">
         <is>
-          <t>onChange</t>
+          <t>dialog</t>
         </is>
       </c>
       <c r="L192" s="12" t="n"/>
@@ -7434,283 +7429,247 @@
       <c r="N192" s="12" t="n"/>
       <c r="O192" s="12" t="inlineStr">
         <is>
-          <t>width: 255px;</t>
+          <t>width: 256px;</t>
         </is>
       </c>
       <c r="P192" s="12" t="n"/>
     </row>
     <row r="193">
-      <c r="C193" s="12" t="inlineStr"/>
-      <c r="D193" s="12" t="inlineStr">
-        <is>
-          <t>dialogField</t>
-        </is>
-      </c>
-      <c r="E193" s="12" t="inlineStr">
-        <is>
-          <t>Dialog</t>
-        </is>
-      </c>
-      <c r="F193" s="12" t="n"/>
-      <c r="G193" s="12" t="inlineStr"/>
-      <c r="H193" s="12" t="inlineStr"/>
-      <c r="I193" s="12" t="inlineStr">
-        <is>
-          <t>TextArea</t>
-        </is>
-      </c>
-      <c r="J193" s="12" t="n"/>
-      <c r="K193" s="12" t="inlineStr">
-        <is>
-          <t>dialog</t>
-        </is>
-      </c>
-      <c r="L193" s="12" t="n"/>
-      <c r="M193" s="12" t="n"/>
-      <c r="N193" s="12" t="n"/>
-      <c r="O193" s="12" t="inlineStr">
-        <is>
-          <t>width: 256px;</t>
-        </is>
-      </c>
-      <c r="P193" s="12" t="n"/>
-    </row>
-    <row r="194">
-      <c r="C194" s="5" t="inlineStr">
+      <c r="C193" s="5" t="inlineStr">
         <is>
           <t>End of Table</t>
         </is>
       </c>
-      <c r="D194" s="3" t="n"/>
-      <c r="E194" s="3" t="n"/>
-      <c r="F194" s="3" t="n"/>
-      <c r="G194" s="3" t="n"/>
-      <c r="H194" s="3" t="n"/>
-      <c r="I194" s="3" t="n"/>
-      <c r="J194" s="3" t="n"/>
-      <c r="K194" s="3" t="n"/>
-      <c r="L194" s="3" t="n"/>
-      <c r="M194" s="3" t="n"/>
-      <c r="N194" s="3" t="n"/>
-      <c r="O194" s="3" t="n"/>
-      <c r="P194" s="3" t="n"/>
-    </row>
+      <c r="D193" s="3" t="n"/>
+      <c r="E193" s="3" t="n"/>
+      <c r="F193" s="3" t="n"/>
+      <c r="G193" s="3" t="n"/>
+      <c r="H193" s="3" t="n"/>
+      <c r="I193" s="3" t="n"/>
+      <c r="J193" s="3" t="n"/>
+      <c r="K193" s="3" t="n"/>
+      <c r="L193" s="3" t="n"/>
+      <c r="M193" s="3" t="n"/>
+      <c r="N193" s="3" t="n"/>
+      <c r="O193" s="3" t="n"/>
+      <c r="P193" s="3" t="n"/>
+    </row>
+    <row r="194"/>
     <row r="195"/>
     <row r="196"/>
-    <row r="197"/>
+    <row r="197">
+      <c r="A197" s="7" t="inlineStr">
+        <is>
+          <t>subScreenTable</t>
+        </is>
+      </c>
+      <c r="B197" s="1" t="inlineStr">
+        <is>
+          <t>Sub Screen</t>
+        </is>
+      </c>
+      <c r="C197" s="3" t="inlineStr">
+        <is>
+          <t>Sub Screen Name</t>
+        </is>
+      </c>
+      <c r="D197" s="3" t="inlineStr">
+        <is>
+          <t>Field Groups</t>
+        </is>
+      </c>
+      <c r="E197" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="198">
-      <c r="A198" s="7" t="inlineStr">
-        <is>
-          <t>subScreenTable</t>
-        </is>
-      </c>
-      <c r="B198" s="1" t="inlineStr">
-        <is>
-          <t>Sub Screen</t>
-        </is>
-      </c>
-      <c r="C198" s="3" t="inlineStr">
-        <is>
-          <t>Sub Screen Name</t>
-        </is>
-      </c>
-      <c r="D198" s="3" t="inlineStr">
-        <is>
-          <t>Field Groups</t>
-        </is>
-      </c>
-      <c r="E198" s="3" t="inlineStr">
-        <is>
-          <t>Remarks</t>
-        </is>
-      </c>
+      <c r="C198" s="12" t="inlineStr">
+        <is>
+          <t>Main Screen</t>
+        </is>
+      </c>
+      <c r="D198" s="12" t="inlineStr">
+        <is>
+          <t>fgHeaderFooterDtlFg, fgHeaderFooterListFg, fgHeaderFooterToolbar, fgLinkDtlFg, fgLinkListFg, fgLinkToolbar, fgToolbar, fieldGroupDtlFg, fieldGroupListFg, fieldListFg, importFg, recordsetListFg, recordsetToolbar, screenDtlFg, screenSelectionFg, screenToolbar1, screenToolbar2, subScreenFg, subScreenToolbar</t>
+        </is>
+      </c>
+      <c r="E198" s="12" t="n"/>
     </row>
     <row r="199">
       <c r="C199" s="12" t="inlineStr">
         <is>
-          <t>Main Screen</t>
+          <t>widgetPramsDialog</t>
         </is>
       </c>
       <c r="D199" s="12" t="inlineStr">
         <is>
-          <t>fgHeaderFooterDtlFg, fgHeaderFooterListFg, fgHeaderFooterToolbar, fgLinkDtlFg, fgLinkListFg, fgLinkToolbar, fgToolbar, fieldGroupDtlFg, fieldGroupListFg, fieldListFg, importFg, recordsetListFg, recordsetToolbar, screenDtlFg, screenSelectionFg, screenToolbar1, screenToolbar2, subScreenFg, subScreenToolbar</t>
+          <t>dialogWidgetPramsFg, dialogHtml</t>
         </is>
       </c>
       <c r="E199" s="12" t="n"/>
     </row>
     <row r="200">
-      <c r="C200" s="12" t="inlineStr">
-        <is>
-          <t>widgetPramsDialog</t>
-        </is>
-      </c>
-      <c r="D200" s="12" t="inlineStr">
-        <is>
-          <t>dialogWidgetPramsFg, dialogHtml</t>
-        </is>
-      </c>
-      <c r="E200" s="12" t="n"/>
-    </row>
-    <row r="201">
-      <c r="C201" s="5" t="inlineStr">
+      <c r="C200" s="5" t="inlineStr">
         <is>
           <t>End of Table</t>
         </is>
       </c>
-      <c r="D201" s="3" t="n"/>
-      <c r="E201" s="3" t="n"/>
-    </row>
+      <c r="D200" s="3" t="n"/>
+      <c r="E200" s="3" t="n"/>
+    </row>
+    <row r="201"/>
     <row r="202"/>
-    <row r="203"/>
+    <row r="203">
+      <c r="B203" s="1" t="n"/>
+    </row>
     <row r="204">
-      <c r="B204" s="1" t="n"/>
+      <c r="A204" s="7" t="inlineStr">
+        <is>
+          <t>fieldGroupLinkTable</t>
+        </is>
+      </c>
+      <c r="B204" s="1" t="inlineStr">
+        <is>
+          <t>Field Group Links</t>
+        </is>
+      </c>
+      <c r="C204" s="3" t="inlineStr">
+        <is>
+          <t>Field Group Name</t>
+        </is>
+      </c>
+      <c r="D204" s="3" t="inlineStr">
+        <is>
+          <t>Local Key</t>
+        </is>
+      </c>
+      <c r="E204" s="3" t="inlineStr">
+        <is>
+          <t>Parent Field Group Name</t>
+        </is>
+      </c>
+      <c r="F204" s="3" t="inlineStr">
+        <is>
+          <t>Parent Key</t>
+        </is>
+      </c>
+      <c r="G204" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
     </row>
     <row r="205">
-      <c r="A205" s="7" t="inlineStr">
-        <is>
-          <t>fieldGroupLinkTable</t>
-        </is>
-      </c>
-      <c r="B205" s="1" t="inlineStr">
-        <is>
-          <t>Field Group Links</t>
-        </is>
-      </c>
-      <c r="C205" s="3" t="inlineStr">
+      <c r="C205" s="12" t="n"/>
+      <c r="D205" s="12" t="n"/>
+      <c r="E205" s="12" t="n"/>
+      <c r="F205" s="12" t="n"/>
+      <c r="G205" s="12" t="n"/>
+    </row>
+    <row r="206">
+      <c r="C206" s="5" t="inlineStr">
+        <is>
+          <t>End of Table</t>
+        </is>
+      </c>
+      <c r="D206" s="3" t="n"/>
+      <c r="E206" s="3" t="n"/>
+      <c r="F206" s="3" t="n"/>
+      <c r="G206" s="3" t="n"/>
+    </row>
+    <row r="207"/>
+    <row r="208"/>
+    <row r="209">
+      <c r="B209" s="18" t="inlineStr">
+        <is>
+          <t>Table Header and Footer for Field Groups</t>
+        </is>
+      </c>
+      <c r="E209" s="8" t="inlineStr">
+        <is>
+          <t>add as many levels as needed</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="14" t="inlineStr">
+        <is>
+          <t>headerFooterTable</t>
+        </is>
+      </c>
+      <c r="B210" s="15" t="n"/>
+      <c r="C210" s="19" t="inlineStr">
         <is>
           <t>Field Group Name</t>
         </is>
       </c>
-      <c r="D205" s="3" t="inlineStr">
-        <is>
-          <t>Local Key</t>
-        </is>
-      </c>
-      <c r="E205" s="3" t="inlineStr">
-        <is>
-          <t>Parent Field Group Name</t>
-        </is>
-      </c>
-      <c r="F205" s="3" t="inlineStr">
-        <is>
-          <t>Parent Key</t>
-        </is>
-      </c>
-      <c r="G205" s="3" t="inlineStr">
+      <c r="D210" s="19" t="inlineStr">
+        <is>
+          <t>Field</t>
+        </is>
+      </c>
+      <c r="E210" s="19" t="inlineStr">
+        <is>
+          <t>Header Level 1</t>
+        </is>
+      </c>
+      <c r="F210" s="19" t="inlineStr">
+        <is>
+          <t>Header Level 2</t>
+        </is>
+      </c>
+      <c r="G210" s="19" t="inlineStr">
+        <is>
+          <t>Header Level 3</t>
+        </is>
+      </c>
+      <c r="H210" s="19" t="inlineStr">
+        <is>
+          <t>Footer</t>
+        </is>
+      </c>
+      <c r="I210" s="19" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
       </c>
-    </row>
-    <row r="206">
-      <c r="C206" s="12" t="n"/>
-      <c r="D206" s="12" t="n"/>
-      <c r="E206" s="12" t="n"/>
-      <c r="F206" s="12" t="n"/>
-      <c r="G206" s="12" t="n"/>
-    </row>
-    <row r="207">
-      <c r="C207" s="5" t="inlineStr">
+      <c r="K210" s="8" t="inlineStr">
+        <is>
+          <t>optional for table field groups only</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="C211" s="12" t="n"/>
+      <c r="D211" s="12" t="n"/>
+      <c r="E211" s="12" t="n"/>
+      <c r="F211" s="12" t="n"/>
+      <c r="G211" s="12" t="n"/>
+      <c r="H211" s="12" t="n"/>
+      <c r="I211" s="12" t="n"/>
+      <c r="K211" s="8" t="inlineStr">
+        <is>
+          <t>this is only an example, does not match the above definition</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="C212" s="5" t="inlineStr">
         <is>
           <t>End of Table</t>
         </is>
       </c>
-      <c r="D207" s="3" t="n"/>
-      <c r="E207" s="3" t="n"/>
-      <c r="F207" s="3" t="n"/>
-      <c r="G207" s="3" t="n"/>
-    </row>
-    <row r="208"/>
-    <row r="209"/>
-    <row r="210">
-      <c r="B210" s="18" t="inlineStr">
-        <is>
-          <t>Table Header and Footer for Field Groups</t>
-        </is>
-      </c>
-      <c r="E210" s="8" t="inlineStr">
-        <is>
-          <t>add as many levels as needed</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="14" t="inlineStr">
-        <is>
-          <t>headerFooterTable</t>
-        </is>
-      </c>
-      <c r="B211" s="15" t="n"/>
-      <c r="C211" s="19" t="inlineStr">
-        <is>
-          <t>Field Group Name</t>
-        </is>
-      </c>
-      <c r="D211" s="19" t="inlineStr">
-        <is>
-          <t>Field</t>
-        </is>
-      </c>
-      <c r="E211" s="19" t="inlineStr">
-        <is>
-          <t>Header Level 1</t>
-        </is>
-      </c>
-      <c r="F211" s="19" t="inlineStr">
-        <is>
-          <t>Header Level 2</t>
-        </is>
-      </c>
-      <c r="G211" s="19" t="inlineStr">
-        <is>
-          <t>Header Level 3</t>
-        </is>
-      </c>
-      <c r="H211" s="19" t="inlineStr">
-        <is>
-          <t>Footer</t>
-        </is>
-      </c>
-      <c r="I211" s="19" t="inlineStr">
-        <is>
-          <t>Remarks</t>
-        </is>
-      </c>
-      <c r="K211" s="8" t="inlineStr">
-        <is>
-          <t>optional for table field groups only</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="C212" s="12" t="n"/>
-      <c r="D212" s="12" t="n"/>
-      <c r="E212" s="12" t="n"/>
-      <c r="F212" s="12" t="n"/>
-      <c r="G212" s="12" t="n"/>
-      <c r="H212" s="12" t="n"/>
-      <c r="I212" s="12" t="n"/>
-      <c r="K212" s="8" t="inlineStr">
-        <is>
-          <t>this is only an example, does not match the above definition</t>
-        </is>
-      </c>
+      <c r="D212" s="3" t="n"/>
+      <c r="E212" s="3" t="n"/>
+      <c r="F212" s="3" t="n"/>
+      <c r="G212" s="3" t="n"/>
+      <c r="H212" s="3" t="n"/>
+      <c r="I212" s="3" t="n"/>
     </row>
     <row r="213">
-      <c r="C213" s="5" t="inlineStr">
-        <is>
-          <t>End of Table</t>
-        </is>
-      </c>
-      <c r="D213" s="3" t="n"/>
-      <c r="E213" s="3" t="n"/>
-      <c r="F213" s="3" t="n"/>
-      <c r="G213" s="3" t="n"/>
-      <c r="H213" s="3" t="n"/>
-      <c r="I213" s="3" t="n"/>
-    </row>
-    <row r="214">
-      <c r="H214" s="8" t="n"/>
+      <c r="H213" s="8" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
